--- a/testcase_mail_ru.xlsx
+++ b/testcase_mail_ru.xlsx
@@ -33,45 +33,30 @@
     <t>Вход с систему</t>
   </si>
   <si>
-    <t>1. Зайти на сайт https://mail.ru/                           2. Запонить поля: логин testhabr, пароль 123abc456   3. Нажать кнопку "Войти"</t>
-  </si>
-  <si>
     <t>Гость вошёл в систему</t>
   </si>
   <si>
     <t>Поменять тему оформления почты</t>
   </si>
   <si>
-    <t>1. Зайти на сайт https://mail.ru/                           2. Заполнить поля: логин testhabr, пароль 123abc456   3. Нажать кнопку "Войти"      4. Выбрать в меню пункт "почта"                                            5. Выбрать пункт "Тема" в меню почтовой службы         6. Выбрать тему "Отдых"</t>
-  </si>
-  <si>
     <t>Тема оформления изменилась на тему "Отдых"</t>
   </si>
   <si>
     <t>Написать письмо</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Зайти на сайт https://mail.ru/                           2. Заполнить поля: логин testhabr, пароль 123abc456   3. Нажать кнопку "Войти"      4. Выбрать в меню пункт "почта"                                            5. Нажать на кнопку "Написать письмо"                    6. Заполнить поле "Кому" testhabr@mail.ru, тело письма testing                             7. Нажать кнопку "Отправить"                                   </t>
-  </si>
-  <si>
     <t>Сообщение отправлено</t>
   </si>
   <si>
     <t>Открыть страницу со списком друзей в разделе "игры"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Зайти на сайт https://mail.ru/                           2. Заполнить поля: логин testhabr, пароль 123abc456   3. Нажать кнопку "Войти"      4. Выбрать в меню пункт "игры"                                              5. Выбрать в меню "Сообщества"                              6. Выбрать "Друзья"                                     </t>
-  </si>
-  <si>
     <t xml:space="preserve">Отрылась страница с надписью "Сообщение" и кнопкой "ок". </t>
   </si>
   <si>
     <t>Добавить комментарий к записи в ленте раздела игр</t>
   </si>
   <si>
-    <t>1. Зайти на сайт https://mail.ru/                           2. Заполнить поля: логин testhabr, пароль 123abc456   3. Нажать кнопку "Войти"      4. Выбрать в меню пункт "игры"                                             5. Написать в поле для ввода текста комментария "Класс)"  6. Нажать Ctrl+Enter</t>
-  </si>
-  <si>
     <t>Добавлен новый комментарий с текстом "Класс)"</t>
   </si>
   <si>
@@ -96,28 +81,43 @@
     <t>Загрузить файл в облако</t>
   </si>
   <si>
-    <t>1. Зайти на сайт https://mail.ru/                           2. Заполнить поля: логин testhabr, пароль 123abc456   3. Нажать кнопку "Войти"                                          4. Выбрать пункт меню "Все проекты"                                       5. Выбрать пункт "Облако"   6. Нажать "Создать"                  7. Выбрать "Папку"                   8. Нажать "Добавить"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Зайти на сайт https://mail.ru/                           2. Заполнить поля: логин testhabr, пароль 123abc456   3. Нажать кнопку "Войти"                                          4. Выбрать пункт меню "Курсы"                                           5. В калькуяторе выбрать курсы "Белорусский рубль" и "Российский Рубль"                  6. Ввести в верхнее поле калькулятора число 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Зайти на сайт https://mail.ru/                           2. Заполнить поля: логин testhabr, пароль 123abc456   3. Нажать кнопку "Войти"                                         4. Выбрать пункт меню "Все проекты"                                       5. Выбрать пункт "Облако"   6. Навести курсор на картинку                                        7. Нажать "Скачать"                  8. Нажать "Сохранить"                                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Зайти на сайт https://mail.ru/                           2. Заполнить поля: логин testhabr, пароль 123abc456   3. Нажать кнопку "Войти"                                          4. Выбрать пункт меню "Все проекты"                                       5. Выбрать пункт "Облако"   6. Нажать "Загрузить"              7. Нажать "Выбрать файлы"  8. Выбрать любой файл          9. Нажать "Открыть" </t>
-  </si>
-  <si>
     <t>Добавился новый файл</t>
   </si>
   <si>
     <t xml:space="preserve">Добавить событие в календарь </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Зайти на сайт https://mail.ru/                           2. Заполнить поля: логин testhabr, пароль 123abc456   3. Нажать кнопку "Войти"                                          4. Выбрать пункт меню "Все проекты"                                       5. Выбрать пункт "Календарь"                                 6. Выбрать пятницу в календаре                                     7. Заполнить поля: название события "Ура пятница.", участники "testhabr@mail.ru"                           8. Нажать "Сохранить"            </t>
-  </si>
-  <si>
     <t>Добавилось новое событие</t>
+  </si>
+  <si>
+    <t>1. Зайти на сайт https://mail.ru/                                                                                        2. Запонить поля: логин testhabr, пароль 123abc456                                               3. Нажать кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>1. Зайти на сайт https://mail.ru/                                                                                        2. Заполнить поля: логин testhabr, пароль 123abc456                                            3. Нажать кнопку "Войти"                                                                                                      4. Выбрать в меню пункт "почта"                                                                                       5. Выбрать пункт "Тема" в меню почтовой службы                                                6. Выбрать тему "Отдых"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Зайти на сайт https://mail.ru/                                                                                        2. Заполнить поля: логин testhabr, пароль 123abc456                                            3. Нажать кнопку "Войти"                                                                                                     4. Выбрать в меню пункт "игры"                                                                                        5. Выбрать в меню "Сообщества"                                                                                     6. Выбрать "Друзья"                                     </t>
+  </si>
+  <si>
+    <t>1. Зайти на сайт https://mail.ru/                                                                                        2. Заполнить поля: логин testhabr, пароль 123abc456                                             3. Нажать кнопку "Войти"                                                                                                     4. Выбрать в меню пункт "игры"                                                                                       5. Написать в поле для ввода текста комментария "Класс)"                                 6. Нажать Ctrl+Enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Зайти на сайт https://mail.ru/                                                                                        2. Заполнить поля: логин testhabr, пароль 123abc456                                            3. Нажать кнопку "Войти"                                                                                                     4. Выбрать пункт меню "Курсы"                                                                                        5. В калькуяторе выбрать курсы "Белорусский рубль" и "Российский Рубль"                                                                                                                                             6. Ввести в верхнее поле калькулятора число 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Зайти на сайт https://mail.ru/                                                                                        2. Заполнить поля: логин testhabr, пароль 123abc456                                            3. Нажать кнопку "Войти"                                                                                                     4. Выбрать пункт меню "Все проекты"                                                                            5. Выбрать пункт "Облако"                                                                                                   6. Навести курсор на картинку                                                                                              7. Нажать "Скачать"                                                                                                                    8. Нажать "Сохранить"                                           </t>
+  </si>
+  <si>
+    <t>1. Зайти на сайт https://mail.ru/                                                                                        2. Заполнить поля: логин testhabr, пароль 123abc456                                              3. Нажать кнопку "Войти"                                                                                                     4. Выбрать пункт меню "Все проекты"                                                                            5. Выбрать пункт "Облако"                                                                                                  6. Нажать "Создать"                                                                                                                 7. Выбрать "Папку"                                                                                                                    8. Нажать "Добавить"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Зайти на сайт https://mail.ru/                                                                                         2. Заполнить поля: логин testhabr, пароль 123abc456                                                3. Нажать кнопку "Войти"                                                                                                      4. Выбрать пункт меню "Все проекты"                                                                            5. Выбрать пункт "Облако"                                                                                                   6. Нажать "Загрузить"                                                                                                                 7. Нажать "Выбрать файлы"                                                                                                 8. Выбрать любой файл                                                                                                            9. Нажать "Открыть" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Зайти на сайт https://mail.ru/                                                                                        2. Заполнить поля: логин testhabr, пароль 123abc456                                            3. Нажать кнопку "Войти"                                                                                                       4. Выбрать пункт меню "Все проекты"                                                                           5. Выбрать пункт "Календарь"                                                                                             6. Выбрать пятницу в календаре                                                                                      7. Заполнить поля: название события "Ура пятница.", участники "testhabr@mail.ru"                                                                                                                     8. Нажать "Сохранить"            </t>
+  </si>
+  <si>
+    <t>1. Зайти на сайт https://mail.ru/                                                                                        2. Заполнить поля: логин testhabr, пароль 123abc456                                            3. Нажать кнопку "Войти"                                                                                                     4. Выбрать в меню пункт "почта"                                                                                     5. Нажать на кнопку "Написать письмо"                                                                        6. Заполнить поле "Кому" testhabr@mail.ru                                                               7. Нажать кнопку "Отправить"                                                                                              8. Нажать кнопку "Подтвердить"</t>
   </si>
 </sst>
 </file>
@@ -154,10 +154,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,168 +473,168 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="68" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
